--- a/hv_comp_load.xlsx
+++ b/hv_comp_load.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ziyan\Downloads\xgboost\python-package\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ziyan\Desktop\VickersHardnessPrediction-master\VickersHardnessPrediction-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="624">
   <si>
     <t>composition</t>
   </si>
@@ -2098,6 +2098,9 @@
   </si>
   <si>
     <t>OsB2</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -2429,8 +2432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1063"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A370" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A405" sqref="A405:XFD405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2904,32 +2907,32 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>31</v>
+        <v>623</v>
       </c>
       <c r="B43" s="1">
-        <v>26.48</v>
+        <v>92</v>
       </c>
       <c r="C43" s="1">
-        <v>0.28999999999999998</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B44" s="1">
-        <v>1.27</v>
+        <v>26.48</v>
       </c>
       <c r="C44" s="1">
-        <v>0.98</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B45" s="1">
-        <v>2.75</v>
+        <v>1.27</v>
       </c>
       <c r="C45" s="1">
         <v>0.98</v>
@@ -2937,10 +2940,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B46" s="1">
-        <v>3.97</v>
+        <v>2.75</v>
       </c>
       <c r="C46" s="1">
         <v>0.98</v>
@@ -2948,10 +2951,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B47" s="1">
-        <v>2.99</v>
+        <v>3.97</v>
       </c>
       <c r="C47" s="1">
         <v>0.98</v>
@@ -2959,10 +2962,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B48" s="1">
-        <v>1.47</v>
+        <v>2.99</v>
       </c>
       <c r="C48" s="1">
         <v>0.98</v>
@@ -2970,43 +2973,43 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B49" s="1">
-        <v>0.59</v>
+        <v>1.47</v>
       </c>
       <c r="C49" s="1">
-        <v>0.25</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B50" s="1">
-        <v>6.1</v>
+        <v>0.59</v>
       </c>
       <c r="C50" s="1">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B51" s="1">
-        <v>6.0449999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="C51" s="1">
-        <v>9.8000000000000007</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="1">
-        <v>6.7990000000000004</v>
+        <v>6.0449999999999999</v>
       </c>
       <c r="C52" s="1">
         <v>9.8000000000000007</v>
@@ -3014,24 +3017,24 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B53" s="1">
-        <v>9</v>
+        <v>6.7990000000000004</v>
       </c>
       <c r="C53" s="1">
-        <v>1.96</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="1">
-        <v>30.79</v>
+        <v>9</v>
       </c>
       <c r="C54" s="1">
-        <v>0.28999999999999998</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -3039,62 +3042,62 @@
         <v>42</v>
       </c>
       <c r="B55" s="1">
-        <v>18.649999999999999</v>
+        <v>30.79</v>
       </c>
       <c r="C55" s="1">
-        <v>1.96</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B56" s="1">
-        <v>0.98</v>
+        <v>18.649999999999999</v>
       </c>
       <c r="C56" s="1">
-        <v>2.9420000000000002</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B57" s="1">
-        <v>7.2</v>
+        <v>0.98</v>
       </c>
       <c r="C57" s="1">
-        <v>1.96</v>
+        <v>2.9420000000000002</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B58" s="1">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="C58" s="1">
-        <v>0.49</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B59" s="1">
-        <v>2</v>
+        <v>6.8</v>
       </c>
       <c r="C59" s="1">
-        <v>2.9420000000000002</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B60" s="1">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="C60" s="1">
         <v>2.9420000000000002</v>
@@ -3102,29 +3105,29 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B61" s="1">
-        <v>0.96</v>
+        <v>5.5</v>
       </c>
       <c r="C61" s="1">
-        <v>9.8000000000000007</v>
+        <v>2.9420000000000002</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B62" s="1">
-        <v>11.28</v>
+        <v>0.96</v>
       </c>
       <c r="C62" s="1">
-        <v>0.49</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B63" s="1">
         <v>11.28</v>
@@ -3135,7 +3138,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B64" s="1">
         <v>11.28</v>
@@ -3146,10 +3149,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B65" s="1">
-        <v>25.25</v>
+        <v>11.28</v>
       </c>
       <c r="C65" s="1">
         <v>0.49</v>
@@ -3157,21 +3160,21 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B66" s="1">
+        <v>25.25</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B67" s="1">
         <v>37.07</v>
-      </c>
-      <c r="C66" s="1">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>448</v>
-      </c>
-      <c r="B67">
-        <v>50.928555259201197</v>
       </c>
       <c r="C67" s="1">
         <v>0.49</v>
@@ -3182,10 +3185,10 @@
         <v>448</v>
       </c>
       <c r="B68">
-        <v>46.456527066946599</v>
+        <v>50.928555259201197</v>
       </c>
       <c r="C68" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3193,10 +3196,10 @@
         <v>448</v>
       </c>
       <c r="B69">
-        <v>37.698768553238601</v>
+        <v>46.456527066946599</v>
       </c>
       <c r="C69" s="1">
-        <v>1.96</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3204,10 +3207,10 @@
         <v>448</v>
       </c>
       <c r="B70">
-        <v>35.618005800839498</v>
+        <v>37.698768553238601</v>
       </c>
       <c r="C70" s="1">
-        <v>2.94</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3215,40 +3218,40 @@
         <v>448</v>
       </c>
       <c r="B71">
+        <v>35.618005800839498</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>448</v>
+      </c>
+      <c r="B72">
         <v>31.9223746399419</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C72" s="1">
         <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B72" s="1">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="C72" s="1">
-        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C73" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B74" s="1">
         <v>14.6</v>
-      </c>
-      <c r="C73" s="1">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>449</v>
-      </c>
-      <c r="B74">
-        <v>42.124175506887397</v>
       </c>
       <c r="C74" s="1">
         <v>0.49</v>
@@ -3259,10 +3262,10 @@
         <v>449</v>
       </c>
       <c r="B75">
-        <v>39.732891358669796</v>
+        <v>42.124175506887397</v>
       </c>
       <c r="C75" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3270,10 +3273,10 @@
         <v>449</v>
       </c>
       <c r="B76">
-        <v>34.204944495407403</v>
+        <v>39.732891358669796</v>
       </c>
       <c r="C76" s="1">
-        <v>1.96</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3281,10 +3284,10 @@
         <v>449</v>
       </c>
       <c r="B77">
-        <v>31.4410084805005</v>
+        <v>34.204944495407403</v>
       </c>
       <c r="C77" s="1">
-        <v>2.94</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3292,43 +3295,43 @@
         <v>449</v>
       </c>
       <c r="B78">
+        <v>31.4410084805005</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>449</v>
+      </c>
+      <c r="B79">
         <v>27.341594738210699</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C79" s="1">
         <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B79" s="1">
-        <v>6.4</v>
-      </c>
-      <c r="C79" s="1">
-        <v>0.5</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B80" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B81" s="1">
         <v>7.26</v>
       </c>
-      <c r="C80" s="1">
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>450</v>
-      </c>
-      <c r="B81">
-        <v>44.503093427689898</v>
-      </c>
       <c r="C81" s="1">
-        <v>0.49</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3336,10 +3339,10 @@
         <v>450</v>
       </c>
       <c r="B82">
-        <v>38.819848449793902</v>
+        <v>44.503093427689898</v>
       </c>
       <c r="C82" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3347,10 +3350,10 @@
         <v>450</v>
       </c>
       <c r="B83">
-        <v>34.5341368367028</v>
+        <v>38.819848449793902</v>
       </c>
       <c r="C83" s="1">
-        <v>1.96</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3358,10 +3361,10 @@
         <v>450</v>
       </c>
       <c r="B84">
-        <v>32.888193838587902</v>
+        <v>34.5341368367028</v>
       </c>
       <c r="C84" s="1">
-        <v>2.94</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3369,40 +3372,40 @@
         <v>450</v>
       </c>
       <c r="B85">
+        <v>32.888193838587902</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>450</v>
+      </c>
+      <c r="B86">
         <v>27.2049488606919</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C86" s="1">
         <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B86" s="1">
-        <v>21.96</v>
-      </c>
-      <c r="C86" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B87" s="1">
-        <v>8.3800000000000008</v>
+        <v>21.96</v>
       </c>
       <c r="C87" s="1">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B88" s="1">
-        <v>8.14</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="C88" s="1">
         <v>0.98</v>
@@ -3410,10 +3413,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B89" s="1">
-        <v>16.8</v>
+        <v>8.14</v>
       </c>
       <c r="C89" s="1">
         <v>0.98</v>
@@ -3421,10 +3424,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B90" s="1">
-        <v>21.5</v>
+        <v>16.8</v>
       </c>
       <c r="C90" s="1">
         <v>0.98</v>
@@ -3432,10 +3435,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B91" s="1">
-        <v>22.2</v>
+        <v>21.5</v>
       </c>
       <c r="C91" s="1">
         <v>0.98</v>
@@ -3443,10 +3446,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B92" s="1">
-        <v>21.8</v>
+        <v>22.2</v>
       </c>
       <c r="C92" s="1">
         <v>0.98</v>
@@ -3454,10 +3457,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B93" s="1">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="C93" s="1">
         <v>0.98</v>
@@ -3465,10 +3468,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B94" s="1">
-        <v>22.1</v>
+        <v>21.6</v>
       </c>
       <c r="C94" s="1">
         <v>0.98</v>
@@ -3476,21 +3479,21 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B95" s="1">
-        <v>5.96</v>
+        <v>22.1</v>
       </c>
       <c r="C95" s="1">
-        <v>0.49</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B96" s="1">
-        <v>5.79</v>
+        <v>5.96</v>
       </c>
       <c r="C96" s="1">
         <v>0.49</v>
@@ -3498,10 +3501,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B97" s="1">
-        <v>13.24</v>
+        <v>5.79</v>
       </c>
       <c r="C97" s="1">
         <v>0.49</v>
@@ -3509,24 +3512,24 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B98" s="1">
-        <v>20.69</v>
+        <v>13.24</v>
       </c>
       <c r="C98" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B99" s="1">
-        <v>23.89</v>
+        <v>20.69</v>
       </c>
       <c r="C99" s="1">
-        <v>0.49</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3534,29 +3537,29 @@
         <v>71</v>
       </c>
       <c r="B100" s="1">
-        <v>14.71</v>
+        <v>23.89</v>
       </c>
       <c r="C100" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B101" s="1">
-        <v>10.75</v>
+        <v>14.71</v>
       </c>
       <c r="C101" s="1">
-        <v>0.49</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B102" s="1">
-        <v>6.25</v>
+        <v>10.75</v>
       </c>
       <c r="C102" s="1">
         <v>0.49</v>
@@ -3564,10 +3567,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B103" s="1">
-        <v>12.16</v>
+        <v>6.25</v>
       </c>
       <c r="C103" s="1">
         <v>0.49</v>
@@ -3575,10 +3578,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B104" s="1">
-        <v>7.85</v>
+        <v>12.16</v>
       </c>
       <c r="C104" s="1">
         <v>0.49</v>
@@ -3586,10 +3589,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B105" s="1">
-        <v>14.91</v>
+        <v>7.85</v>
       </c>
       <c r="C105" s="1">
         <v>0.49</v>
@@ -3597,35 +3600,35 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B106" s="1">
-        <v>7.02</v>
+        <v>14.91</v>
       </c>
       <c r="C106" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B107" s="1">
-        <v>3.03</v>
+        <v>7.02</v>
       </c>
       <c r="C107" s="1">
-        <v>0.49</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B108" s="1">
-        <v>27.5</v>
+        <v>3.03</v>
       </c>
       <c r="C108" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3633,10 +3636,10 @@
         <v>79</v>
       </c>
       <c r="B109" s="1">
-        <v>23</v>
+        <v>27.5</v>
       </c>
       <c r="C109" s="1">
-        <v>1.96</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3644,95 +3647,95 @@
         <v>79</v>
       </c>
       <c r="B110" s="1">
-        <v>21.5</v>
+        <v>23</v>
       </c>
       <c r="C110" s="1">
-        <v>2.94</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B111" s="1">
-        <v>20.59</v>
+        <v>21.5</v>
       </c>
       <c r="C111" s="1">
-        <v>0.49</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B112" s="1">
-        <v>26.1</v>
+        <v>20.59</v>
       </c>
       <c r="C112" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B113" s="1">
-        <v>40.31</v>
+        <v>26.1</v>
       </c>
       <c r="C113" s="1">
-        <v>0.49</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B114" s="1">
-        <v>6.24</v>
+        <v>40.31</v>
       </c>
       <c r="C114" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B115" s="1">
-        <v>1.25</v>
+        <v>6.24</v>
       </c>
       <c r="C115" s="1">
-        <v>9.8000000000000007</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B116" s="1">
-        <v>5.49</v>
+        <v>1.25</v>
       </c>
       <c r="C116" s="1">
-        <v>0.49</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B117" s="1">
-        <v>6.12</v>
+        <v>5.49</v>
       </c>
       <c r="C117" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B118" s="1">
-        <v>6.32</v>
+        <v>6.12</v>
       </c>
       <c r="C118" s="1">
         <v>0.98</v>
@@ -3740,10 +3743,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B119" s="1">
-        <v>5.58</v>
+        <v>6.32</v>
       </c>
       <c r="C119" s="1">
         <v>0.98</v>
@@ -3751,10 +3754,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B120" s="1">
-        <v>6.9</v>
+        <v>5.58</v>
       </c>
       <c r="C120" s="1">
         <v>0.98</v>
@@ -3762,32 +3765,32 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B121" s="1">
-        <v>5.05</v>
+        <v>6.9</v>
       </c>
       <c r="C121" s="1">
-        <v>0.49</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B122" s="1">
-        <v>4.41</v>
+        <v>5.05</v>
       </c>
       <c r="C122" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B123" s="1">
-        <v>3.92</v>
+        <v>4.41</v>
       </c>
       <c r="C123" s="1">
         <v>0.98</v>
@@ -3795,32 +3798,32 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B124" s="1">
-        <v>4.6100000000000003</v>
+        <v>3.92</v>
       </c>
       <c r="C124" s="1">
-        <v>0.49</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B125" s="1">
-        <v>4.8099999999999996</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="C125" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B126" s="1">
-        <v>1.27</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="C126" s="1">
         <v>0.98</v>
@@ -3828,21 +3831,21 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B127" s="1">
-        <v>4.24</v>
+        <v>1.27</v>
       </c>
       <c r="C127" s="1">
-        <v>0.49</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B128" s="1">
-        <v>4.41</v>
+        <v>4.24</v>
       </c>
       <c r="C128" s="1">
         <v>0.49</v>
@@ -3850,10 +3853,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B129" s="1">
-        <v>30.4</v>
+        <v>4.41</v>
       </c>
       <c r="C129" s="1">
         <v>0.49</v>
@@ -3861,32 +3864,32 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B130" s="1">
-        <v>5.71</v>
+        <v>30.4</v>
       </c>
       <c r="C130" s="1">
-        <v>1.72</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B131" s="1">
-        <v>5.5</v>
+        <v>5.71</v>
       </c>
       <c r="C131" s="1">
-        <v>0.49</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B132" s="1">
-        <v>34.32</v>
+        <v>5.5</v>
       </c>
       <c r="C132" s="1">
         <v>0.49</v>
@@ -3894,32 +3897,32 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B133" s="1">
-        <v>4.47</v>
+        <v>34.32</v>
       </c>
       <c r="C133" s="1">
-        <v>1.72</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B134" s="1">
-        <v>7.45</v>
+        <v>4.47</v>
       </c>
       <c r="C134" s="1">
-        <v>0.98</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B135" s="1">
-        <v>4.9000000000000004</v>
+        <v>7.45</v>
       </c>
       <c r="C135" s="1">
         <v>0.98</v>
@@ -3927,10 +3930,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B136" s="1">
-        <v>11.1</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C136" s="1">
         <v>0.98</v>
@@ -3938,10 +3941,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B137" s="1">
-        <v>26.09</v>
+        <v>11.1</v>
       </c>
       <c r="C137" s="1">
         <v>0.98</v>
@@ -3949,21 +3952,21 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B138" s="1">
-        <v>1.1100000000000001</v>
+        <v>26.09</v>
       </c>
       <c r="C138" s="1">
-        <v>9.8000000000000007</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B139" s="1">
-        <v>0.84</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C139" s="1">
         <v>9.8000000000000007</v>
@@ -3971,10 +3974,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B140" s="1">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="C140" s="1">
         <v>9.8000000000000007</v>
@@ -3982,21 +3985,21 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B141" s="1">
-        <v>11</v>
+        <v>0.8</v>
       </c>
       <c r="C141" s="1">
-        <v>0.49</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B142" s="1">
-        <v>9.4499999999999993</v>
+        <v>11</v>
       </c>
       <c r="C142" s="1">
         <v>0.49</v>
@@ -4004,21 +4007,21 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B143" s="1">
-        <v>22.74</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="C143" s="1">
-        <v>5</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B144" s="1">
-        <v>22.41</v>
+        <v>22.74</v>
       </c>
       <c r="C144" s="1">
         <v>5</v>
@@ -4026,10 +4029,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B145" s="1">
-        <v>22.65</v>
+        <v>22.41</v>
       </c>
       <c r="C145" s="1">
         <v>5</v>
@@ -4037,43 +4040,43 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B146" s="1">
-        <v>7.01</v>
+        <v>22.65</v>
       </c>
       <c r="C146" s="1">
-        <v>0.98</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B147" s="1">
-        <v>4.63</v>
+        <v>7.01</v>
       </c>
       <c r="C147" s="1">
-        <v>1.72</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B148" s="1">
-        <v>5.88</v>
+        <v>4.63</v>
       </c>
       <c r="C148" s="1">
-        <v>0.98</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B149" s="1">
-        <v>6.28</v>
+        <v>5.88</v>
       </c>
       <c r="C149" s="1">
         <v>0.98</v>
@@ -4081,10 +4084,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B150" s="1">
-        <v>6.86</v>
+        <v>6.28</v>
       </c>
       <c r="C150" s="1">
         <v>0.98</v>
@@ -4092,35 +4095,35 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B151" s="1">
-        <v>6.8</v>
+        <v>6.86</v>
       </c>
       <c r="C151" s="1">
-        <v>0.49</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B152" s="1">
         <v>6.8</v>
       </c>
       <c r="C152" s="1">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B153" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="C153" s="1">
         <v>2.94</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" t="s">
-        <v>498</v>
-      </c>
-      <c r="B153">
-        <v>51.339584920228198</v>
-      </c>
-      <c r="C153" s="1">
-        <v>0.49</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4128,10 +4131,10 @@
         <v>498</v>
       </c>
       <c r="B154">
-        <v>39.951479695986599</v>
+        <v>51.339584920228198</v>
       </c>
       <c r="C154" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -4139,10 +4142,10 @@
         <v>498</v>
       </c>
       <c r="B155">
-        <v>34.873000339230103</v>
+        <v>39.951479695986599</v>
       </c>
       <c r="C155" s="1">
-        <v>1.96</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -4150,10 +4153,10 @@
         <v>498</v>
       </c>
       <c r="B156">
-        <v>33.457181851892003</v>
+        <v>34.873000339230103</v>
       </c>
       <c r="C156" s="1">
-        <v>2.94</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -4161,43 +4164,43 @@
         <v>498</v>
       </c>
       <c r="B157">
+        <v>33.457181851892003</v>
+      </c>
+      <c r="C157" s="1">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>498</v>
+      </c>
+      <c r="B158">
         <v>31.0872525223058</v>
       </c>
-      <c r="C157" s="1">
+      <c r="C158" s="1">
         <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B158" s="1">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="C158" s="1">
-        <v>0.49</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B159" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C159" s="1">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B159" s="1">
+      <c r="B160" s="1">
         <v>0.7</v>
       </c>
-      <c r="C159" s="1">
+      <c r="C160" s="1">
         <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" t="s">
-        <v>499</v>
-      </c>
-      <c r="B160">
-        <v>42.285366685103398</v>
-      </c>
-      <c r="C160" s="1">
-        <v>0.49</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -4205,10 +4208,10 @@
         <v>499</v>
       </c>
       <c r="B161">
-        <v>37.391531601389403</v>
+        <v>42.285366685103398</v>
       </c>
       <c r="C161" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4216,10 +4219,10 @@
         <v>499</v>
       </c>
       <c r="B162">
-        <v>33.174910209276902</v>
+        <v>37.391531601389403</v>
       </c>
       <c r="C162" s="1">
-        <v>1.96</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4227,10 +4230,10 @@
         <v>499</v>
       </c>
       <c r="B163">
-        <v>31.3589136988181</v>
+        <v>33.174910209276902</v>
       </c>
       <c r="C163" s="1">
-        <v>2.94</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -4238,32 +4241,32 @@
         <v>499</v>
       </c>
       <c r="B164">
+        <v>31.3589136988181</v>
+      </c>
+      <c r="C164" s="1">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>499</v>
+      </c>
+      <c r="B165">
         <v>29.019763032000199</v>
-      </c>
-      <c r="C164" s="1">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B165" s="1">
-        <v>3.8260000000000001</v>
       </c>
       <c r="C165" s="1">
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" t="s">
-        <v>500</v>
-      </c>
-      <c r="B166">
-        <v>44.606814772705398</v>
+      <c r="A166" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B166" s="1">
+        <v>3.8260000000000001</v>
       </c>
       <c r="C166" s="1">
-        <v>0.49</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -4271,10 +4274,10 @@
         <v>500</v>
       </c>
       <c r="B167">
-        <v>38.389552597091601</v>
+        <v>44.606814772705398</v>
       </c>
       <c r="C167" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4282,10 +4285,10 @@
         <v>500</v>
       </c>
       <c r="B168">
-        <v>34.973121029819097</v>
+        <v>38.389552597091601</v>
       </c>
       <c r="C168" s="1">
-        <v>1.96</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4293,10 +4296,10 @@
         <v>500</v>
       </c>
       <c r="B169">
-        <v>32.633887252300603</v>
+        <v>34.973121029819097</v>
       </c>
       <c r="C169" s="1">
-        <v>2.94</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4304,43 +4307,43 @@
         <v>500</v>
       </c>
       <c r="B170">
+        <v>32.633887252300603</v>
+      </c>
+      <c r="C170" s="1">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>500</v>
+      </c>
+      <c r="B171">
         <v>31.156539142992902</v>
       </c>
-      <c r="C170" s="1">
+      <c r="C171" s="1">
         <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B171" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="C171" s="1">
-        <v>0.49</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B172" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C172" s="1">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B172" s="1">
+      <c r="B173" s="1">
         <v>12.45</v>
       </c>
-      <c r="C172" s="1">
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" t="s">
-        <v>501</v>
-      </c>
-      <c r="B173">
-        <v>45.389329721896303</v>
-      </c>
       <c r="C173" s="1">
-        <v>0.49</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4348,10 +4351,10 @@
         <v>501</v>
       </c>
       <c r="B174">
-        <v>39.479798766831102</v>
+        <v>45.389329721896303</v>
       </c>
       <c r="C174" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4359,10 +4362,10 @@
         <v>501</v>
       </c>
       <c r="B175">
-        <v>35.478572606962402</v>
+        <v>39.479798766831102</v>
       </c>
       <c r="C175" s="1">
-        <v>1.96</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4370,10 +4373,10 @@
         <v>501</v>
       </c>
       <c r="B176">
-        <v>33.754967491941997</v>
+        <v>35.478572606962402</v>
       </c>
       <c r="C176" s="1">
-        <v>2.94</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4381,29 +4384,29 @@
         <v>501</v>
       </c>
       <c r="B177">
+        <v>33.754967491941997</v>
+      </c>
+      <c r="C177" s="1">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>501</v>
+      </c>
+      <c r="B178">
         <v>31.908247725848799</v>
       </c>
-      <c r="C177" s="1">
+      <c r="C178" s="1">
         <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B178" s="1">
-        <v>8.4</v>
-      </c>
-      <c r="C178" s="1">
-        <v>0.98</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B179" s="1">
-        <v>9.11</v>
+        <v>8.4</v>
       </c>
       <c r="C179" s="1">
         <v>0.98</v>
@@ -4411,10 +4414,10 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B180" s="1">
-        <v>5.7</v>
+        <v>9.11</v>
       </c>
       <c r="C180" s="1">
         <v>0.98</v>
@@ -4422,76 +4425,76 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B181" s="1">
-        <v>6.9</v>
+        <v>5.7</v>
       </c>
       <c r="C181" s="1">
-        <v>0.2</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B182" s="1">
-        <v>7.72</v>
+        <v>6.9</v>
       </c>
       <c r="C182" s="1">
-        <v>0.98</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B183" s="1">
-        <v>28.44</v>
+        <v>7.72</v>
       </c>
       <c r="C183" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B184" s="1">
-        <v>15</v>
+        <v>28.44</v>
       </c>
       <c r="C184" s="1">
-        <v>0.98</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B185" s="1">
-        <v>2.702</v>
+        <v>15</v>
       </c>
       <c r="C185" s="1">
-        <v>4.9000000000000004</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B186" s="1">
-        <v>5.7</v>
+        <v>2.702</v>
       </c>
       <c r="C186" s="1">
-        <v>0.98</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B187" s="1">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="C187" s="1">
         <v>0.98</v>
@@ -4499,21 +4502,21 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B188" s="1">
-        <v>19.5</v>
+        <v>5.8</v>
       </c>
       <c r="C188" s="1">
-        <v>0.49</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B189" s="1">
-        <v>8.83</v>
+        <v>19.5</v>
       </c>
       <c r="C189" s="1">
         <v>0.49</v>
@@ -4521,10 +4524,10 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B190" s="1">
-        <v>11.4</v>
+        <v>8.83</v>
       </c>
       <c r="C190" s="1">
         <v>0.49</v>
@@ -4532,21 +4535,21 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B191" s="1">
-        <v>7.2</v>
+        <v>11.4</v>
       </c>
       <c r="C191" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B192" s="1">
-        <v>12.4</v>
+        <v>7.2</v>
       </c>
       <c r="C192" s="1">
         <v>0.98</v>
@@ -4557,73 +4560,73 @@
         <v>141</v>
       </c>
       <c r="B193" s="1">
-        <v>9.9</v>
+        <v>12.4</v>
       </c>
       <c r="C193" s="1">
-        <v>1.96</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B194" s="1">
-        <v>0.25</v>
+        <v>9.9</v>
       </c>
       <c r="C194" s="1">
-        <v>0.25</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B195" s="1">
-        <v>28.44</v>
+        <v>0.25</v>
       </c>
       <c r="C195" s="1">
-        <v>0.49</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B196" s="1">
-        <v>5.61</v>
+        <v>28.44</v>
       </c>
       <c r="C196" s="1">
-        <v>1.72</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B197" s="1">
-        <v>5.5</v>
+        <v>5.61</v>
       </c>
       <c r="C197" s="1">
-        <v>0.49</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B198" s="1">
-        <v>3.89</v>
+        <v>5.5</v>
       </c>
       <c r="C198" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B199" s="1">
-        <v>4.3600000000000003</v>
+        <v>3.89</v>
       </c>
       <c r="C199" s="1">
         <v>0.98</v>
@@ -4631,35 +4634,35 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B200" s="1">
-        <v>9.8000000000000007</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="C200" s="1">
-        <v>0.02</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B201" s="1">
-        <v>1.0900000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C201" s="1">
-        <v>9.8000000000000007</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B202" s="1">
-        <v>37.9</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="C202" s="1">
-        <v>0.98</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4667,10 +4670,10 @@
         <v>150</v>
       </c>
       <c r="B203" s="1">
-        <v>29</v>
+        <v>37.9</v>
       </c>
       <c r="C203" s="1">
-        <v>1.96</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4678,10 +4681,10 @@
         <v>150</v>
       </c>
       <c r="B204" s="1">
-        <v>22.2</v>
+        <v>29</v>
       </c>
       <c r="C204" s="1">
-        <v>2.94</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4689,21 +4692,21 @@
         <v>150</v>
       </c>
       <c r="B205" s="1">
-        <v>21.3</v>
+        <v>22.2</v>
       </c>
       <c r="C205" s="1">
-        <v>4.9000000000000004</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B206" s="1">
-        <v>49.8</v>
+        <v>21.3</v>
       </c>
       <c r="C206" s="1">
-        <v>0.49</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4711,73 +4714,73 @@
         <v>151</v>
       </c>
       <c r="B207" s="1">
-        <v>18.2</v>
+        <v>49.8</v>
       </c>
       <c r="C207" s="1">
-        <v>9.81</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B208" s="1">
-        <v>7.3780000000000001</v>
+        <v>18.2</v>
       </c>
       <c r="C208" s="1">
-        <v>9.8000000000000007</v>
+        <v>9.81</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B209" s="1">
-        <v>4.3150000000000004</v>
+        <v>7.3780000000000001</v>
       </c>
       <c r="C209" s="1">
-        <v>0.49</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B210" s="1">
-        <v>27.16</v>
+        <v>4.3150000000000004</v>
       </c>
       <c r="C210" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B211" s="1">
-        <v>2.4</v>
+        <v>27.16</v>
       </c>
       <c r="C211" s="1">
-        <v>2.9420000000000002</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B212" s="1">
-        <v>7.3</v>
+        <v>2.4</v>
       </c>
       <c r="C212" s="1">
-        <v>0.98</v>
+        <v>2.9420000000000002</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B213" s="1">
-        <v>4.78</v>
+        <v>7.3</v>
       </c>
       <c r="C213" s="1">
         <v>0.98</v>
@@ -4785,21 +4788,21 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B214" s="1">
-        <v>6.01</v>
+        <v>4.78</v>
       </c>
       <c r="C214" s="1">
-        <v>0.49</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B215" s="1">
-        <v>5.38</v>
+        <v>6.01</v>
       </c>
       <c r="C215" s="1">
         <v>0.49</v>
@@ -4807,32 +4810,32 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B216" s="1">
-        <v>4.2</v>
+        <v>5.38</v>
       </c>
       <c r="C216" s="1">
-        <v>2.94</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B217" s="1">
-        <v>8.0500000000000007</v>
+        <v>4.2</v>
       </c>
       <c r="C217" s="1">
-        <v>0.98</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B218" s="1">
-        <v>4.33</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="C218" s="1">
         <v>0.98</v>
@@ -4840,79 +4843,79 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B219" s="1">
-        <v>5.88</v>
+        <v>4.33</v>
       </c>
       <c r="C219" s="1">
-        <v>1.72</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B220" s="1">
-        <v>7.7</v>
+        <v>5.88</v>
       </c>
       <c r="C220" s="1">
-        <v>2.94</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B221" s="1">
-        <v>32</v>
+        <v>7.7</v>
       </c>
       <c r="C221" s="1">
-        <v>2</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B222" s="1">
-        <v>5.2</v>
+        <v>32</v>
       </c>
       <c r="C222" s="1">
-        <v>0.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B223" s="1">
-        <v>16.239999999999998</v>
+        <v>5.2</v>
       </c>
       <c r="C223" s="1">
-        <v>2.4500000000000002</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B224" s="1">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="C224" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B224" s="1">
+      <c r="B225" s="1">
         <v>14.4</v>
       </c>
-      <c r="C224" s="1">
+      <c r="C225" s="1">
         <v>3.92</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" t="s">
-        <v>445</v>
-      </c>
-      <c r="B225">
-        <v>53.683358246138503</v>
-      </c>
-      <c r="C225" s="1">
-        <v>0.49</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4920,10 +4923,10 @@
         <v>445</v>
       </c>
       <c r="B226">
-        <v>44.247633283507703</v>
+        <v>53.683358246138503</v>
       </c>
       <c r="C226" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4931,10 +4934,10 @@
         <v>445</v>
       </c>
       <c r="B227">
-        <v>36.431240657697998</v>
+        <v>44.247633283507703</v>
       </c>
       <c r="C227" s="1">
-        <v>1.96</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4942,10 +4945,10 @@
         <v>445</v>
       </c>
       <c r="B228">
-        <v>34.220229197807598</v>
+        <v>36.431240657697998</v>
       </c>
       <c r="C228" s="1">
-        <v>2.94</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4953,32 +4956,32 @@
         <v>445</v>
       </c>
       <c r="B229">
+        <v>34.220229197807598</v>
+      </c>
+      <c r="C229" s="1">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>445</v>
+      </c>
+      <c r="B230">
         <v>31.697807673143998</v>
       </c>
-      <c r="C229" s="1">
+      <c r="C230" s="1">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="1" t="s">
+    <row r="231" spans="1:3">
+      <c r="A231" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B230" s="1">
+      <c r="B231" s="1">
         <v>1.1299999999999999</v>
       </c>
-      <c r="C230" s="1">
+      <c r="C231" s="1">
         <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" t="s">
-        <v>446</v>
-      </c>
-      <c r="B231">
-        <v>47.174887892376603</v>
-      </c>
-      <c r="C231" s="1">
-        <v>0.49</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4986,10 +4989,10 @@
         <v>446</v>
       </c>
       <c r="B232">
-        <v>39.5764823119083</v>
+        <v>47.174887892376603</v>
       </c>
       <c r="C232" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4997,10 +5000,10 @@
         <v>446</v>
       </c>
       <c r="B233">
-        <v>33.846537120079702</v>
+        <v>39.5764823119083</v>
       </c>
       <c r="C233" s="1">
-        <v>1.96</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5008,10 +5011,10 @@
         <v>446</v>
       </c>
       <c r="B234">
-        <v>32.382909815645199</v>
+        <v>33.846537120079702</v>
       </c>
       <c r="C234" s="1">
-        <v>2.94</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5019,21 +5022,21 @@
         <v>446</v>
       </c>
       <c r="B235">
-        <v>30.047334329845501</v>
+        <v>32.382909815645199</v>
       </c>
       <c r="C235" s="1">
-        <v>4.9000000000000004</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B236">
-        <v>41.008968609865398</v>
+        <v>30.047334329845501</v>
       </c>
       <c r="C236" s="1">
-        <v>0.49</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5041,10 +5044,10 @@
         <v>447</v>
       </c>
       <c r="B237">
-        <v>32.289486796213197</v>
+        <v>41.008968609865398</v>
       </c>
       <c r="C237" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5052,10 +5055,10 @@
         <v>447</v>
       </c>
       <c r="B238">
-        <v>30.109616342800201</v>
+        <v>32.289486796213197</v>
       </c>
       <c r="C238" s="1">
-        <v>1.96</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -5063,10 +5066,10 @@
         <v>447</v>
       </c>
       <c r="B239">
-        <v>28.957399103139</v>
+        <v>30.109616342800201</v>
       </c>
       <c r="C239" s="1">
-        <v>2.94</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -5074,51 +5077,51 @@
         <v>447</v>
       </c>
       <c r="B240">
+        <v>28.957399103139</v>
+      </c>
+      <c r="C240" s="1">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>447</v>
+      </c>
+      <c r="B241">
         <v>26.715246636771202</v>
       </c>
-      <c r="C240" s="1">
+      <c r="C241" s="1">
         <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
-      <c r="A241" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B241" s="1">
-        <v>17.45</v>
-      </c>
-      <c r="C241" s="1">
-        <v>0.49</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B242" s="1">
-        <v>8.3000000000000007</v>
+        <v>17.45</v>
       </c>
       <c r="C242" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B243" s="1">
-        <v>18</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C243" s="1">
-        <v>0.49</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B244" s="1">
-        <v>12.4</v>
+        <v>18</v>
       </c>
       <c r="C244" s="1">
         <v>0.49</v>
@@ -5126,10 +5129,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B245" s="1">
-        <v>41.29</v>
+        <v>12.4</v>
       </c>
       <c r="C245" s="1">
         <v>0.49</v>
@@ -5137,24 +5140,24 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B246" s="1">
+        <v>41.29</v>
+      </c>
+      <c r="C246" s="1">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B246" s="1">
+      <c r="B247" s="1">
         <v>11.2</v>
       </c>
-      <c r="C246" s="1">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
-      <c r="A247" t="s">
-        <v>438</v>
-      </c>
-      <c r="B247">
-        <v>50.314960629921202</v>
-      </c>
       <c r="C247" s="1">
-        <v>0.49</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5162,10 +5165,10 @@
         <v>438</v>
       </c>
       <c r="B248">
-        <v>45.078740157480297</v>
+        <v>50.314960629921202</v>
       </c>
       <c r="C248" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5173,10 +5176,10 @@
         <v>438</v>
       </c>
       <c r="B249">
-        <v>40.314960629921202</v>
+        <v>45.078740157480297</v>
       </c>
       <c r="C249" s="1">
-        <v>1.96</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5184,10 +5187,10 @@
         <v>438</v>
       </c>
       <c r="B250">
-        <v>36.338582677165299</v>
+        <v>40.314960629921202</v>
       </c>
       <c r="C250" s="1">
-        <v>2.94</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5195,21 +5198,21 @@
         <v>438</v>
       </c>
       <c r="B251">
-        <v>33.425196850393696</v>
+        <v>36.338582677165299</v>
       </c>
       <c r="C251" s="1">
-        <v>4.9000000000000004</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B252">
-        <v>43.661417322834602</v>
+        <v>33.425196850393696</v>
       </c>
       <c r="C252" s="1">
-        <v>0.49</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5217,10 +5220,10 @@
         <v>439</v>
       </c>
       <c r="B253">
-        <v>38.110236220472402</v>
+        <v>43.661417322834602</v>
       </c>
       <c r="C253" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5228,10 +5231,10 @@
         <v>439</v>
       </c>
       <c r="B254">
-        <v>34.173228346456597</v>
+        <v>38.110236220472402</v>
       </c>
       <c r="C254" s="1">
-        <v>1.96</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5239,10 +5242,10 @@
         <v>439</v>
       </c>
       <c r="B255">
-        <v>31.929133858267701</v>
+        <v>34.173228346456597</v>
       </c>
       <c r="C255" s="1">
-        <v>2.94</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5250,32 +5253,32 @@
         <v>439</v>
       </c>
       <c r="B256">
+        <v>31.929133858267701</v>
+      </c>
+      <c r="C256" s="1">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>439</v>
+      </c>
+      <c r="B257">
         <v>29.606299212598401</v>
       </c>
-      <c r="C256" s="1">
+      <c r="C257" s="1">
         <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
-      <c r="A257" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B257" s="1">
-        <v>1.06</v>
-      </c>
-      <c r="C257" s="1">
-        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B258" s="1">
-        <v>39.6</v>
+        <v>1.06</v>
       </c>
       <c r="C258" s="1">
-        <v>0.49</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -5283,10 +5286,10 @@
         <v>177</v>
       </c>
       <c r="B259" s="1">
-        <v>33</v>
+        <v>39.6</v>
       </c>
       <c r="C259" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5294,10 +5297,10 @@
         <v>177</v>
       </c>
       <c r="B260" s="1">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C260" s="1">
-        <v>1.96</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5305,40 +5308,40 @@
         <v>177</v>
       </c>
       <c r="B261" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C261" s="1">
-        <v>4.9000000000000004</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B262" s="1">
-        <v>14.06</v>
+        <v>26</v>
       </c>
       <c r="C262" s="1">
-        <v>0.98</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B263" s="1">
-        <v>10</v>
+        <v>14.06</v>
       </c>
       <c r="C263" s="1">
-        <v>0.49</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B264" s="1">
-        <v>24.52</v>
+        <v>10</v>
       </c>
       <c r="C264" s="1">
         <v>0.49</v>
@@ -5346,21 +5349,21 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B265" s="1">
-        <v>13.53</v>
+        <v>24.52</v>
       </c>
       <c r="C265" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B266" s="1">
-        <v>20.3</v>
+        <v>13.53</v>
       </c>
       <c r="C266" s="1">
         <v>0.98</v>
@@ -5368,10 +5371,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B267" s="1">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="C267" s="1">
         <v>0.98</v>
@@ -5379,10 +5382,10 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B268" s="1">
-        <v>12.07</v>
+        <v>20.5</v>
       </c>
       <c r="C268" s="1">
         <v>0.98</v>
@@ -5390,43 +5393,43 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B269" s="1">
-        <v>17.100000000000001</v>
+        <v>12.07</v>
       </c>
       <c r="C269" s="1">
-        <v>0.49</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B270" s="1">
-        <v>19.399999999999999</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="C270" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B271" s="1">
-        <v>23.78</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="C271" s="1">
-        <v>0.49</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B272" s="1">
-        <v>23.04</v>
+        <v>23.78</v>
       </c>
       <c r="C272" s="1">
         <v>0.49</v>
@@ -5434,32 +5437,32 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B273" s="1">
-        <v>4.8</v>
+        <v>23.04</v>
       </c>
       <c r="C273" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B274" s="1">
-        <v>12.75</v>
+        <v>4.8</v>
       </c>
       <c r="C274" s="1">
-        <v>0.98</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B275" s="1">
-        <v>0.53</v>
+        <v>12.75</v>
       </c>
       <c r="C275" s="1">
         <v>0.98</v>
@@ -5467,43 +5470,43 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B276" s="1">
-        <v>5.673</v>
+        <v>0.53</v>
       </c>
       <c r="C276" s="1">
-        <v>1</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B277" s="1">
-        <v>1.1599999999999999</v>
+        <v>5.673</v>
       </c>
       <c r="C277" s="1">
-        <v>9.8000000000000007</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B278" s="1">
-        <v>12.26</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="C278" s="1">
-        <v>0.98</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B279" s="1">
-        <v>4.41</v>
+        <v>12.26</v>
       </c>
       <c r="C279" s="1">
         <v>0.98</v>
@@ -5511,10 +5514,10 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B280" s="1">
-        <v>3.7265000000000001</v>
+        <v>4.41</v>
       </c>
       <c r="C280" s="1">
         <v>0.98</v>
@@ -5522,13 +5525,13 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B281" s="1">
-        <v>10.46</v>
+        <v>3.7265000000000001</v>
       </c>
       <c r="C281" s="1">
-        <v>0.49</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5536,62 +5539,62 @@
         <v>197</v>
       </c>
       <c r="B282" s="1">
-        <v>5.08</v>
+        <v>10.46</v>
       </c>
       <c r="C282" s="1">
-        <v>1.96</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B283" s="1">
-        <v>9.81</v>
+        <v>5.08</v>
       </c>
       <c r="C283" s="1">
-        <v>0.49</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B284" s="1">
-        <v>9.11</v>
+        <v>9.81</v>
       </c>
       <c r="C284" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B285" s="1">
-        <v>7.12</v>
+        <v>9.11</v>
       </c>
       <c r="C285" s="1">
-        <v>0.49</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B286" s="1">
-        <v>6.8</v>
+        <v>7.12</v>
       </c>
       <c r="C286" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B287" s="1">
-        <v>9.1</v>
+        <v>6.8</v>
       </c>
       <c r="C287" s="1">
         <v>0.98</v>
@@ -5599,10 +5602,10 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B288" s="1">
-        <v>10.42</v>
+        <v>9.1</v>
       </c>
       <c r="C288" s="1">
         <v>0.98</v>
@@ -5610,10 +5613,10 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B289" s="1">
-        <v>9.65</v>
+        <v>10.42</v>
       </c>
       <c r="C289" s="1">
         <v>0.98</v>
@@ -5621,10 +5624,10 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B290" s="1">
-        <v>10.42</v>
+        <v>9.65</v>
       </c>
       <c r="C290" s="1">
         <v>0.98</v>
@@ -5632,13 +5635,13 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B291" s="1">
-        <v>21.53</v>
+        <v>10.42</v>
       </c>
       <c r="C291" s="1">
-        <v>0.49</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5646,106 +5649,106 @@
         <v>206</v>
       </c>
       <c r="B292" s="1">
-        <v>16.579999999999998</v>
+        <v>21.53</v>
       </c>
       <c r="C292" s="1">
-        <v>1.96</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B293" s="1">
-        <v>2.7040000000000002</v>
+        <v>16.579999999999998</v>
       </c>
       <c r="C293" s="1">
-        <v>4.9000000000000004</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B294" s="1">
-        <v>7.8</v>
+        <v>2.7040000000000002</v>
       </c>
       <c r="C294" s="1">
-        <v>0.98</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B295" s="1">
-        <v>20</v>
+        <v>7.8</v>
       </c>
       <c r="C295" s="1">
-        <v>0.49</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B296" s="1">
-        <v>24.91</v>
+        <v>20</v>
       </c>
       <c r="C296" s="1">
-        <v>0.69</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B297" s="1">
-        <v>2.35</v>
+        <v>24.91</v>
       </c>
       <c r="C297" s="1">
-        <v>1.72</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B298" s="1">
-        <v>5.3</v>
+        <v>2.35</v>
       </c>
       <c r="C298" s="1">
-        <v>49.03</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B299" s="1">
-        <v>6.3</v>
+        <v>5.3</v>
       </c>
       <c r="C299" s="1">
-        <v>0.49</v>
+        <v>49.03</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B300" s="1">
-        <v>4.6100000000000003</v>
+        <v>6.3</v>
       </c>
       <c r="C300" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B301" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="C301" s="1">
         <v>0.98</v>
@@ -5753,21 +5756,21 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B302" s="1">
-        <v>5.49</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C302" s="1">
-        <v>49.03</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B303" s="1">
-        <v>4.9000000000000004</v>
+        <v>5.49</v>
       </c>
       <c r="C303" s="1">
         <v>49.03</v>
@@ -5775,43 +5778,43 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B304" s="1">
-        <v>5.07</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C304" s="1">
-        <v>1.96</v>
+        <v>49.03</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B305" s="1">
-        <v>14.02</v>
+        <v>5.07</v>
       </c>
       <c r="C305" s="1">
-        <v>0.5</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B306" s="1">
-        <v>11.67</v>
+        <v>14.02</v>
       </c>
       <c r="C306" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B307" s="1">
-        <v>39.130000000000003</v>
+        <v>11.67</v>
       </c>
       <c r="C307" s="1">
         <v>0.49</v>
@@ -5819,10 +5822,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B308" s="1">
-        <v>23.5</v>
+        <v>39.130000000000003</v>
       </c>
       <c r="C308" s="1">
         <v>0.49</v>
@@ -5833,21 +5836,21 @@
         <v>222</v>
       </c>
       <c r="B309" s="1">
-        <v>15</v>
+        <v>23.5</v>
       </c>
       <c r="C309" s="1">
-        <v>1.96</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B310" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C310" s="1">
-        <v>0.49</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5855,21 +5858,21 @@
         <v>223</v>
       </c>
       <c r="B311" s="1">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="C311" s="1">
-        <v>1.96</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B312" s="1">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="C312" s="1">
-        <v>0.49</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5877,29 +5880,29 @@
         <v>224</v>
       </c>
       <c r="B313" s="1">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="C313" s="1">
-        <v>1.96</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B314" s="1">
-        <v>19.61</v>
+        <v>16.5</v>
       </c>
       <c r="C314" s="1">
-        <v>0.98</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B315" s="1">
-        <v>14.22</v>
+        <v>19.61</v>
       </c>
       <c r="C315" s="1">
         <v>0.98</v>
@@ -5907,10 +5910,10 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B316" s="1">
-        <v>5.05</v>
+        <v>14.22</v>
       </c>
       <c r="C316" s="1">
         <v>0.98</v>
@@ -5918,10 +5921,10 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B317" s="1">
-        <v>2.54</v>
+        <v>5.05</v>
       </c>
       <c r="C317" s="1">
         <v>0.98</v>
@@ -5929,10 +5932,10 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B318" s="1">
-        <v>2.7</v>
+        <v>2.54</v>
       </c>
       <c r="C318" s="1">
         <v>0.98</v>
@@ -5940,10 +5943,10 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B319" s="1">
-        <v>1.73</v>
+        <v>2.7</v>
       </c>
       <c r="C319" s="1">
         <v>0.98</v>
@@ -5951,65 +5954,65 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B320" s="1">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="C320" s="1">
-        <v>0.49</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B321" s="1">
-        <v>24.22</v>
+        <v>1.86</v>
       </c>
       <c r="C321" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B322" s="1">
-        <v>1.37</v>
+        <v>24.22</v>
       </c>
       <c r="C322" s="1">
-        <v>1.72</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B323" s="1">
-        <v>6.5</v>
+        <v>1.37</v>
       </c>
       <c r="C323" s="1">
-        <v>0.49</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B324" s="1">
-        <v>0.74</v>
+        <v>6.5</v>
       </c>
       <c r="C324" s="1">
-        <v>9.8000000000000007</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B325" s="1">
-        <v>1.4</v>
+        <v>0.74</v>
       </c>
       <c r="C325" s="1">
         <v>9.8000000000000007</v>
@@ -6017,10 +6020,10 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B326" s="1">
-        <v>0.59</v>
+        <v>1.4</v>
       </c>
       <c r="C326" s="1">
         <v>9.8000000000000007</v>
@@ -6028,10 +6031,10 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B327" s="1">
-        <v>1.21</v>
+        <v>0.59</v>
       </c>
       <c r="C327" s="1">
         <v>9.8000000000000007</v>
@@ -6039,10 +6042,10 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B328" s="1">
-        <v>0.85</v>
+        <v>1.21</v>
       </c>
       <c r="C328" s="1">
         <v>9.8000000000000007</v>
@@ -6050,13 +6053,13 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1" t="s">
-        <v>413</v>
+        <v>239</v>
       </c>
       <c r="B329" s="1">
-        <v>48.17</v>
+        <v>0.85</v>
       </c>
       <c r="C329" s="1">
-        <v>0.49</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -6064,10 +6067,10 @@
         <v>413</v>
       </c>
       <c r="B330" s="1">
-        <v>38.03</v>
+        <v>48.17</v>
       </c>
       <c r="C330" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -6075,10 +6078,10 @@
         <v>413</v>
       </c>
       <c r="B331" s="1">
-        <v>34.76</v>
+        <v>38.03</v>
       </c>
       <c r="C331" s="1">
-        <v>1.96</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -6086,10 +6089,10 @@
         <v>413</v>
       </c>
       <c r="B332" s="1">
-        <v>32.520000000000003</v>
+        <v>34.76</v>
       </c>
       <c r="C332" s="1">
-        <v>2.94</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6097,29 +6100,29 @@
         <v>413</v>
       </c>
       <c r="B333" s="1">
-        <v>30.31</v>
+        <v>32.520000000000003</v>
       </c>
       <c r="C333" s="1">
-        <v>4.9000000000000004</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1" t="s">
-        <v>240</v>
+        <v>413</v>
       </c>
       <c r="B334" s="1">
-        <v>10.79</v>
+        <v>30.31</v>
       </c>
       <c r="C334" s="1">
-        <v>0.98</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B335" s="1">
-        <v>12.75</v>
+        <v>10.79</v>
       </c>
       <c r="C335" s="1">
         <v>0.98</v>
@@ -6127,10 +6130,10 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B336" s="1">
-        <v>16.57</v>
+        <v>12.75</v>
       </c>
       <c r="C336" s="1">
         <v>0.98</v>
@@ -6138,10 +6141,10 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B337" s="1">
-        <v>16.18</v>
+        <v>16.57</v>
       </c>
       <c r="C337" s="1">
         <v>0.98</v>
@@ -6149,13 +6152,13 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B338" s="1">
-        <v>40.450000000000003</v>
+        <v>16.18</v>
       </c>
       <c r="C338" s="1">
-        <v>0.49</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6163,10 +6166,10 @@
         <v>244</v>
       </c>
       <c r="B339" s="1">
-        <v>35.08</v>
+        <v>40.450000000000003</v>
       </c>
       <c r="C339" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6174,10 +6177,10 @@
         <v>244</v>
       </c>
       <c r="B340" s="1">
-        <v>31.73</v>
+        <v>35.08</v>
       </c>
       <c r="C340" s="1">
-        <v>1.96</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6185,10 +6188,10 @@
         <v>244</v>
       </c>
       <c r="B341" s="1">
-        <v>30.3</v>
+        <v>31.73</v>
       </c>
       <c r="C341" s="1">
-        <v>2.93</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6196,29 +6199,29 @@
         <v>244</v>
       </c>
       <c r="B342" s="1">
-        <v>29.31</v>
+        <v>30.3</v>
       </c>
       <c r="C342" s="1">
-        <v>4.9000000000000004</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B343" s="1">
-        <v>17.16</v>
+        <v>29.31</v>
       </c>
       <c r="C343" s="1">
-        <v>0.98</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B344" s="1">
-        <v>22.56</v>
+        <v>17.16</v>
       </c>
       <c r="C344" s="1">
         <v>0.98</v>
@@ -6226,32 +6229,32 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B345" s="1">
-        <v>0.71</v>
+        <v>22.56</v>
       </c>
       <c r="C345" s="1">
-        <v>9.8000000000000007</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B346" s="1">
-        <v>11.08</v>
+        <v>0.71</v>
       </c>
       <c r="C346" s="1">
-        <v>0.98</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B347" s="1">
-        <v>2.06</v>
+        <v>11.08</v>
       </c>
       <c r="C347" s="1">
         <v>0.98</v>
@@ -6259,10 +6262,10 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B348" s="1">
-        <v>9.2200000000000006</v>
+        <v>2.06</v>
       </c>
       <c r="C348" s="1">
         <v>0.98</v>
@@ -6270,10 +6273,10 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B349" s="1">
-        <v>10.199999999999999</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="C349" s="1">
         <v>0.98</v>
@@ -6281,10 +6284,10 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B350" s="1">
-        <v>11.38</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="C350" s="1">
         <v>0.98</v>
@@ -6292,10 +6295,10 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B351" s="1">
-        <v>10.79</v>
+        <v>11.38</v>
       </c>
       <c r="C351" s="1">
         <v>0.98</v>
@@ -6303,21 +6306,21 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B352" s="1">
-        <v>7.62</v>
+        <v>10.79</v>
       </c>
       <c r="C352" s="1">
-        <v>0.49</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B353" s="1">
-        <v>11.89</v>
+        <v>7.62</v>
       </c>
       <c r="C353" s="1">
         <v>0.49</v>
@@ -6325,79 +6328,79 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B354" s="1">
-        <v>11.03</v>
+        <v>11.89</v>
       </c>
       <c r="C354" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B355" s="1">
-        <v>2.7650000000000001</v>
+        <v>11.03</v>
       </c>
       <c r="C355" s="1">
-        <v>1.96</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B356" s="1">
-        <v>1.68</v>
+        <v>2.7650000000000001</v>
       </c>
       <c r="C356" s="1">
-        <v>9.8000000000000007</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B357" s="1">
-        <v>4.8099999999999996</v>
+        <v>1.68</v>
       </c>
       <c r="C357" s="1">
-        <v>1</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B358" s="1">
-        <v>10.79</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="C358" s="1">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B359" s="1">
-        <v>15.2</v>
+        <v>10.79</v>
       </c>
       <c r="C359" s="1">
-        <v>0.2</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B360" s="1">
-        <v>24.2</v>
+        <v>15.2</v>
       </c>
       <c r="C360" s="1">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6405,10 +6408,10 @@
         <v>262</v>
       </c>
       <c r="B361" s="1">
-        <v>20.6</v>
+        <v>24.2</v>
       </c>
       <c r="C361" s="1">
-        <v>0.49</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6416,10 +6419,10 @@
         <v>262</v>
       </c>
       <c r="B362" s="1">
-        <v>16.739999999999998</v>
+        <v>20.6</v>
       </c>
       <c r="C362" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6427,32 +6430,32 @@
         <v>262</v>
       </c>
       <c r="B363" s="1">
-        <v>14.4</v>
+        <v>16.739999999999998</v>
       </c>
       <c r="C363" s="1">
-        <v>1.96</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B364" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="C364" s="1">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B364" s="1">
+      <c r="B365" s="1">
         <v>1.18</v>
       </c>
-      <c r="C364" s="1">
+      <c r="C365" s="1">
         <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3">
-      <c r="A365" t="s">
-        <v>484</v>
-      </c>
-      <c r="B365">
-        <v>41.507874203665097</v>
-      </c>
-      <c r="C365" s="1">
-        <v>0.49</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6460,10 +6463,10 @@
         <v>484</v>
       </c>
       <c r="B366">
-        <v>35.038978641801599</v>
+        <v>41.507874203665097</v>
       </c>
       <c r="C366" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6471,10 +6474,10 @@
         <v>484</v>
       </c>
       <c r="B367">
-        <v>32.319577693359498</v>
+        <v>35.038978641801599</v>
       </c>
       <c r="C367" s="1">
-        <v>1.96</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6482,10 +6485,10 @@
         <v>484</v>
       </c>
       <c r="B368">
-        <v>30.094613280997699</v>
+        <v>32.319577693359498</v>
       </c>
       <c r="C368" s="1">
-        <v>2.94</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6493,21 +6496,21 @@
         <v>484</v>
       </c>
       <c r="B369">
-        <v>28.858521940796699</v>
+        <v>30.094613280997699</v>
       </c>
       <c r="C369" s="1">
-        <v>4.9000000000000004</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B370">
-        <v>41.513473000092603</v>
+        <v>28.858521940796699</v>
       </c>
       <c r="C370" s="1">
-        <v>0.49</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6515,10 +6518,10 @@
         <v>480</v>
       </c>
       <c r="B371">
-        <v>35.912403747396802</v>
+        <v>41.513473000092603</v>
       </c>
       <c r="C371" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6526,10 +6529,10 @@
         <v>480</v>
       </c>
       <c r="B372">
-        <v>33.544462035192801</v>
+        <v>35.912403747396802</v>
       </c>
       <c r="C372" s="1">
-        <v>1.96</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6537,10 +6540,10 @@
         <v>480</v>
       </c>
       <c r="B373">
-        <v>31.2448026904387</v>
+        <v>33.544462035192801</v>
       </c>
       <c r="C373" s="1">
-        <v>2.94</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6548,21 +6551,21 @@
         <v>480</v>
       </c>
       <c r="B374">
-        <v>28.8540923079251</v>
+        <v>31.2448026904387</v>
       </c>
       <c r="C374" s="1">
-        <v>4.9000000000000004</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B375">
-        <v>42.666508031435001</v>
+        <v>28.8540923079251</v>
       </c>
       <c r="C375" s="1">
-        <v>0.49</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6570,10 +6573,10 @@
         <v>485</v>
       </c>
       <c r="B376">
-        <v>35.8473865898479</v>
+        <v>42.666508031435001</v>
       </c>
       <c r="C376" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6581,10 +6584,10 @@
         <v>485</v>
       </c>
       <c r="B377">
-        <v>33.5606176104761</v>
+        <v>35.8473865898479</v>
       </c>
       <c r="C377" s="1">
-        <v>1.96</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6592,10 +6595,10 @@
         <v>485</v>
       </c>
       <c r="B378">
-        <v>30.964825796054001</v>
+        <v>33.5606176104761</v>
       </c>
       <c r="C378" s="1">
-        <v>2.94</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -6603,21 +6606,21 @@
         <v>485</v>
       </c>
       <c r="B379">
-        <v>29.975952723893201</v>
+        <v>30.964825796054001</v>
       </c>
       <c r="C379" s="1">
-        <v>4.9000000000000004</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B380">
-        <v>43.692692462647997</v>
+        <v>29.975952723893201</v>
       </c>
       <c r="C380" s="1">
-        <v>0.49</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6625,10 +6628,10 @@
         <v>481</v>
       </c>
       <c r="B381">
-        <v>36.884883683540501</v>
+        <v>43.692692462647997</v>
       </c>
       <c r="C381" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6636,10 +6639,10 @@
         <v>481</v>
       </c>
       <c r="B382">
-        <v>34.2665102414093</v>
+        <v>36.884883683540501</v>
       </c>
       <c r="C382" s="1">
-        <v>1.96</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6647,10 +6650,10 @@
         <v>481</v>
       </c>
       <c r="B383">
-        <v>32.149000259132499</v>
+        <v>34.2665102414093</v>
       </c>
       <c r="C383" s="1">
-        <v>2.94</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -6658,21 +6661,21 @@
         <v>481</v>
       </c>
       <c r="B384">
-        <v>30.441349985908399</v>
+        <v>32.149000259132499</v>
       </c>
       <c r="C384" s="1">
-        <v>4.9000000000000004</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B385">
-        <v>45.1448676589089</v>
+        <v>30.441349985908399</v>
       </c>
       <c r="C385" s="1">
-        <v>0.49</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -6680,10 +6683,10 @@
         <v>486</v>
       </c>
       <c r="B386">
-        <v>37.522304394336203</v>
+        <v>45.1448676589089</v>
       </c>
       <c r="C386" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -6691,10 +6694,10 @@
         <v>486</v>
       </c>
       <c r="B387">
-        <v>35.7917589699098</v>
+        <v>37.522304394336203</v>
       </c>
       <c r="C387" s="1">
-        <v>1.96</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -6702,10 +6705,10 @@
         <v>486</v>
       </c>
       <c r="B388">
-        <v>32.825157301572503</v>
+        <v>35.7917589699098</v>
       </c>
       <c r="C388" s="1">
-        <v>2.94</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6713,21 +6716,21 @@
         <v>486</v>
       </c>
       <c r="B389">
-        <v>31.197637036974601</v>
+        <v>32.825157301572503</v>
       </c>
       <c r="C389" s="1">
-        <v>4.9000000000000004</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B390">
-        <v>47.964998193638202</v>
+        <v>31.197637036974601</v>
       </c>
       <c r="C390" s="1">
-        <v>0.49</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -6735,10 +6738,10 @@
         <v>482</v>
       </c>
       <c r="B391">
-        <v>39.631664860304802</v>
+        <v>47.964998193638202</v>
       </c>
       <c r="C391" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6746,10 +6749,10 @@
         <v>482</v>
       </c>
       <c r="B392">
-        <v>37.172648466862199</v>
+        <v>39.631664860304802</v>
       </c>
       <c r="C392" s="1">
-        <v>1.96</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -6757,10 +6760,10 @@
         <v>482</v>
       </c>
       <c r="B393">
-        <v>34.076132948228299</v>
+        <v>37.172648466862199</v>
       </c>
       <c r="C393" s="1">
-        <v>2.94</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -6768,21 +6771,21 @@
         <v>482</v>
       </c>
       <c r="B394">
-        <v>32.049721290669098</v>
+        <v>34.076132948228299</v>
       </c>
       <c r="C394" s="1">
-        <v>4.9000000000000004</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B395">
-        <v>44.369415127343302</v>
+        <v>32.049721290669098</v>
       </c>
       <c r="C395" s="1">
-        <v>0.49</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -6790,10 +6793,10 @@
         <v>487</v>
       </c>
       <c r="B396">
-        <v>36.067001625660097</v>
+        <v>44.369415127343302</v>
       </c>
       <c r="C396" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6801,10 +6804,10 @@
         <v>487</v>
       </c>
       <c r="B397">
-        <v>35.036925508826002</v>
+        <v>36.067001625660097</v>
       </c>
       <c r="C397" s="1">
-        <v>1.96</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6812,10 +6815,10 @@
         <v>487</v>
       </c>
       <c r="B398">
-        <v>32.008519273478697</v>
+        <v>35.036925508826002</v>
       </c>
       <c r="C398" s="1">
-        <v>2.94</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -6823,21 +6826,21 @@
         <v>487</v>
       </c>
       <c r="B399">
-        <v>30.5457936394291</v>
+        <v>32.008519273478697</v>
       </c>
       <c r="C399" s="1">
-        <v>4.9000000000000004</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B400">
-        <v>45.951543162589502</v>
+        <v>30.5457936394291</v>
       </c>
       <c r="C400" s="1">
-        <v>0.49</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6845,10 +6848,10 @@
         <v>483</v>
       </c>
       <c r="B401">
-        <v>38.437858316924697</v>
+        <v>45.951543162589502</v>
       </c>
       <c r="C401" s="1">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -6856,10 +6859,10 @@
         <v>483</v>
       </c>
       <c r="B402">
-        <v>36.3203719781269</v>
+        <v>38.437858316924697</v>
       </c>
       <c r="C402" s="1">
-        <v>1.96</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6867,10 +6870,10 @@
         <v>483</v>
       </c>
       <c r="B403">
-        <v>33.4742881894202</v>
+        <v>36.3203719781269</v>
       </c>
       <c r="C403" s="1">
-        <v>2.94</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -6878,10 +6881,10 @@
         <v>483</v>
       </c>
       <c r="B404">
-        <v>31.311264510002999</v>
+        <v>33.4742881894202</v>
       </c>
       <c r="C404" s="1">
-        <v>4.9000000000000004</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="405" spans="1:3">
